--- a/src/main/resources/excel/product.xlsx
+++ b/src/main/resources/excel/product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="4440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="2805"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -407,66 +407,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/excel/product.xlsx
+++ b/src/main/resources/excel/product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
   <si>
     <t>102</t>
   </si>
@@ -55,10 +55,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -67,7 +67,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -82,6 +82,105 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/excel/product.xlsx
+++ b/src/main/resources/excel/product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
   <si>
     <t>102</t>
   </si>
@@ -181,6 +181,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/excel/product.xlsx
+++ b/src/main/resources/excel/product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="9">
   <si>
     <t>102</t>
   </si>
@@ -21,6 +21,24 @@
   </si>
   <si>
     <t>999</t>
+  </si>
+  <si>
+    <t>23234</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>345.66</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>CarBox</t>
+  </si>
+  <si>
+    <t>89.56</t>
   </si>
 </sst>
 </file>
@@ -71,136 +89,268 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
